--- a/data/zenodo/trade/CHE_trd_gas.xlsx
+++ b/data/zenodo/trade/CHE_trd_gas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DEE6E1-E6A0-334D-A949-B44705537B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA24B43-E366-AB41-9370-C735310144B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$304</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$303</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="80">
   <si>
     <t>Name:</t>
   </si>
@@ -266,16 +266,13 @@
     <t>gas</t>
   </si>
   <si>
-    <t>enable_max_import_share</t>
-  </si>
-  <si>
-    <t>enable_max_export_share</t>
-  </si>
-  <si>
     <t>output</t>
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>enable_year</t>
   </si>
 </sst>
 </file>
@@ -697,11 +694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -831,11 +828,14 @@
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
+      <c r="G9">
+        <v>1990</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -844,11 +844,17 @@
       <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
         <v>78</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -859,16 +865,10 @@
         <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -879,11 +879,23 @@
         <v>75</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -893,22 +905,22 @@
         <v>75</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>15818.000000000002</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
         <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -919,23 +931,20 @@
         <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
       </c>
       <c r="G14">
-        <v>15818.000000000002</v>
-      </c>
-      <c r="H14" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>33</v>
       </c>
-      <c r="L14" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -944,20 +953,29 @@
       <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>73</v>
+      <c r="C15" t="s">
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>76</v>
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>1990</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>360</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -974,23 +992,15 @@
         <v>18</v>
       </c>
       <c r="E16">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="G16">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="H16" t="s">
         <v>31</v>
       </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" t="s">
-        <v>39</v>
-      </c>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1006,10 +1016,10 @@
         <v>18</v>
       </c>
       <c r="E17">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="G17">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="H17" t="s">
         <v>31</v>
@@ -1030,10 +1040,10 @@
         <v>18</v>
       </c>
       <c r="E18">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="G18">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
         <v>31</v>
@@ -1054,7 +1064,7 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1078,10 +1088,10 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="H20" t="s">
         <v>31</v>
@@ -1102,10 +1112,10 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="G21">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="H21" t="s">
         <v>31</v>
@@ -1126,10 +1136,10 @@
         <v>18</v>
       </c>
       <c r="E22">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
         <v>31</v>
@@ -1150,10 +1160,10 @@
         <v>18</v>
       </c>
       <c r="E23">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
         <v>31</v>
@@ -1174,10 +1184,10 @@
         <v>18</v>
       </c>
       <c r="E24">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
         <v>31</v>
@@ -1198,7 +1208,7 @@
         <v>18</v>
       </c>
       <c r="E25">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -1222,10 +1232,10 @@
         <v>18</v>
       </c>
       <c r="E26">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
         <v>31</v>
@@ -1246,10 +1256,10 @@
         <v>18</v>
       </c>
       <c r="E27">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="G27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
         <v>31</v>
@@ -1270,7 +1280,7 @@
         <v>18</v>
       </c>
       <c r="E28">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1294,10 +1304,10 @@
         <v>18</v>
       </c>
       <c r="E29">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H29" t="s">
         <v>31</v>
@@ -1318,10 +1328,10 @@
         <v>18</v>
       </c>
       <c r="E30">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
         <v>31</v>
@@ -1342,10 +1352,10 @@
         <v>18</v>
       </c>
       <c r="E31">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="H31" t="s">
         <v>31</v>
@@ -1366,10 +1376,10 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G32">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="H32" t="s">
         <v>31</v>
@@ -1390,7 +1400,7 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1414,7 +1424,7 @@
         <v>18</v>
       </c>
       <c r="E34">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1438,7 +1448,7 @@
         <v>18</v>
       </c>
       <c r="E35">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1462,7 +1472,7 @@
         <v>18</v>
       </c>
       <c r="E36">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1486,7 +1496,7 @@
         <v>18</v>
       </c>
       <c r="E37">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1510,7 +1520,7 @@
         <v>18</v>
       </c>
       <c r="E38">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1534,7 +1544,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1558,7 +1568,7 @@
         <v>18</v>
       </c>
       <c r="E40">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1582,10 +1592,10 @@
         <v>18</v>
       </c>
       <c r="E41">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H41" t="s">
         <v>31</v>
@@ -1606,10 +1616,10 @@
         <v>18</v>
       </c>
       <c r="E42">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H42" t="s">
         <v>31</v>
@@ -1630,7 +1640,7 @@
         <v>18</v>
       </c>
       <c r="E43">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1654,10 +1664,10 @@
         <v>18</v>
       </c>
       <c r="E44">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H44" t="s">
         <v>31</v>
@@ -1672,21 +1682,29 @@
         <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
       </c>
       <c r="E45">
-        <v>2019</v>
+        <v>1990</v>
       </c>
       <c r="G45">
-        <v>10</v>
+        <v>14380</v>
       </c>
       <c r="H45" t="s">
         <v>31</v>
       </c>
-      <c r="K45" s="2"/>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1702,10 +1720,10 @@
         <v>18</v>
       </c>
       <c r="E46">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="G46">
-        <v>14380</v>
+        <v>11480</v>
       </c>
       <c r="H46" t="s">
         <v>31</v>
@@ -1734,10 +1752,10 @@
         <v>18</v>
       </c>
       <c r="E47">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="G47">
-        <v>11480</v>
+        <v>5350</v>
       </c>
       <c r="H47" t="s">
         <v>31</v>
@@ -1766,10 +1784,10 @@
         <v>18</v>
       </c>
       <c r="E48">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="G48">
-        <v>5350</v>
+        <v>4350</v>
       </c>
       <c r="H48" t="s">
         <v>31</v>
@@ -1798,10 +1816,10 @@
         <v>18</v>
       </c>
       <c r="E49">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="G49">
-        <v>4350</v>
+        <v>4520</v>
       </c>
       <c r="H49" t="s">
         <v>31</v>
@@ -1830,10 +1848,10 @@
         <v>18</v>
       </c>
       <c r="E50">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="G50">
-        <v>4520</v>
+        <v>6780</v>
       </c>
       <c r="H50" t="s">
         <v>31</v>
@@ -1862,10 +1880,10 @@
         <v>18</v>
       </c>
       <c r="E51">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="G51">
-        <v>6780</v>
+        <v>4560</v>
       </c>
       <c r="H51" t="s">
         <v>31</v>
@@ -1894,10 +1912,10 @@
         <v>18</v>
       </c>
       <c r="E52">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="G52">
-        <v>4560</v>
+        <v>3110</v>
       </c>
       <c r="H52" t="s">
         <v>31</v>
@@ -1926,10 +1944,10 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="G53">
-        <v>3110</v>
+        <v>2690</v>
       </c>
       <c r="H53" t="s">
         <v>31</v>
@@ -1958,10 +1976,10 @@
         <v>18</v>
       </c>
       <c r="E54">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="G54">
-        <v>2690</v>
+        <v>2570</v>
       </c>
       <c r="H54" t="s">
         <v>31</v>
@@ -1990,10 +2008,10 @@
         <v>18</v>
       </c>
       <c r="E55">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="G55">
-        <v>2570</v>
+        <v>7830</v>
       </c>
       <c r="H55" t="s">
         <v>31</v>
@@ -2022,10 +2040,10 @@
         <v>18</v>
       </c>
       <c r="E56">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="G56">
-        <v>7830</v>
+        <v>5330</v>
       </c>
       <c r="H56" t="s">
         <v>31</v>
@@ -2054,10 +2072,10 @@
         <v>18</v>
       </c>
       <c r="E57">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="G57">
-        <v>5330</v>
+        <v>4300</v>
       </c>
       <c r="H57" t="s">
         <v>31</v>
@@ -2086,10 +2104,10 @@
         <v>18</v>
       </c>
       <c r="E58">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="G58">
-        <v>4300</v>
+        <v>3110</v>
       </c>
       <c r="H58" t="s">
         <v>31</v>
@@ -2118,10 +2136,10 @@
         <v>18</v>
       </c>
       <c r="E59">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G59">
-        <v>3110</v>
+        <v>5400</v>
       </c>
       <c r="H59" t="s">
         <v>31</v>
@@ -2150,10 +2168,10 @@
         <v>18</v>
       </c>
       <c r="E60">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="G60">
-        <v>5400</v>
+        <v>4110</v>
       </c>
       <c r="H60" t="s">
         <v>31</v>
@@ -2182,10 +2200,10 @@
         <v>18</v>
       </c>
       <c r="E61">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="G61">
-        <v>4110</v>
+        <v>6720</v>
       </c>
       <c r="H61" t="s">
         <v>31</v>
@@ -2214,10 +2232,10 @@
         <v>18</v>
       </c>
       <c r="E62">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G62">
-        <v>6720</v>
+        <v>8460</v>
       </c>
       <c r="H62" t="s">
         <v>31</v>
@@ -2246,10 +2264,10 @@
         <v>18</v>
       </c>
       <c r="E63">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="G63">
-        <v>8460</v>
+        <v>6490</v>
       </c>
       <c r="H63" t="s">
         <v>31</v>
@@ -2278,10 +2296,10 @@
         <v>18</v>
       </c>
       <c r="E64">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G64">
-        <v>6490</v>
+        <v>6810</v>
       </c>
       <c r="H64" t="s">
         <v>31</v>
@@ -2310,10 +2328,10 @@
         <v>18</v>
       </c>
       <c r="E65">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G65">
-        <v>6810</v>
+        <v>5380</v>
       </c>
       <c r="H65" t="s">
         <v>31</v>
@@ -2342,10 +2360,10 @@
         <v>18</v>
       </c>
       <c r="E66">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G66">
-        <v>5380</v>
+        <v>4750</v>
       </c>
       <c r="H66" t="s">
         <v>31</v>
@@ -2374,10 +2392,10 @@
         <v>18</v>
       </c>
       <c r="E67">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G67">
-        <v>4750</v>
+        <v>5390</v>
       </c>
       <c r="H67" t="s">
         <v>31</v>
@@ -2406,10 +2424,10 @@
         <v>18</v>
       </c>
       <c r="E68">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G68">
-        <v>5390</v>
+        <v>5700</v>
       </c>
       <c r="H68" t="s">
         <v>31</v>
@@ -2438,10 +2456,10 @@
         <v>18</v>
       </c>
       <c r="E69">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G69">
-        <v>5700</v>
+        <v>4640</v>
       </c>
       <c r="H69" t="s">
         <v>31</v>
@@ -2470,10 +2488,10 @@
         <v>18</v>
       </c>
       <c r="E70">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G70">
-        <v>4640</v>
+        <v>5440</v>
       </c>
       <c r="H70" t="s">
         <v>31</v>
@@ -2502,10 +2520,10 @@
         <v>18</v>
       </c>
       <c r="E71">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G71">
-        <v>5440</v>
+        <v>4760</v>
       </c>
       <c r="H71" t="s">
         <v>31</v>
@@ -2534,10 +2552,10 @@
         <v>18</v>
       </c>
       <c r="E72">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G72">
-        <v>4760</v>
+        <v>4590</v>
       </c>
       <c r="H72" t="s">
         <v>31</v>
@@ -2566,10 +2584,10 @@
         <v>18</v>
       </c>
       <c r="E73">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G73">
-        <v>4590</v>
+        <v>3390</v>
       </c>
       <c r="H73" t="s">
         <v>31</v>
@@ -2598,10 +2616,10 @@
         <v>18</v>
       </c>
       <c r="E74">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G74">
-        <v>3390</v>
+        <v>3360</v>
       </c>
       <c r="H74" t="s">
         <v>31</v>
@@ -2624,28 +2642,28 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
       </c>
       <c r="E75">
-        <v>2019</v>
+        <v>1990</v>
       </c>
       <c r="G75">
-        <v>3360</v>
+        <v>103.5</v>
       </c>
       <c r="H75" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="I75" t="s">
+        <v>35</v>
       </c>
       <c r="J75" t="s">
-        <v>19</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L75" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -2662,13 +2680,13 @@
         <v>18</v>
       </c>
       <c r="E76">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="G76">
-        <v>103.5</v>
+        <v>100</v>
       </c>
       <c r="H76" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I76" t="s">
         <v>35</v>
@@ -2694,13 +2712,13 @@
         <v>18</v>
       </c>
       <c r="E77">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="G77">
-        <v>100</v>
+        <v>90.1</v>
       </c>
       <c r="H77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I77" t="s">
         <v>35</v>
@@ -2726,13 +2744,13 @@
         <v>18</v>
       </c>
       <c r="E78">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="G78">
-        <v>90.1</v>
+        <v>76.5</v>
       </c>
       <c r="H78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I78" t="s">
         <v>35</v>
@@ -2758,13 +2776,13 @@
         <v>18</v>
       </c>
       <c r="E79">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="G79">
-        <v>76.5</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="H79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I79" t="s">
         <v>35</v>
@@ -2790,13 +2808,13 @@
         <v>18</v>
       </c>
       <c r="E80">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="G80">
-        <v>79.599999999999994</v>
+        <v>101.5</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
         <v>35</v>
@@ -2822,13 +2840,13 @@
         <v>18</v>
       </c>
       <c r="E81">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="G81">
-        <v>101.5</v>
+        <v>99.8</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
         <v>35</v>
@@ -2854,13 +2872,13 @@
         <v>18</v>
       </c>
       <c r="E82">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="G82">
-        <v>99.8</v>
+        <v>84.5</v>
       </c>
       <c r="H82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I82" t="s">
         <v>35</v>
@@ -2886,13 +2904,13 @@
         <v>18</v>
       </c>
       <c r="E83">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="G83">
-        <v>84.5</v>
+        <v>84.3</v>
       </c>
       <c r="H83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I83" t="s">
         <v>35</v>
@@ -2918,13 +2936,13 @@
         <v>18</v>
       </c>
       <c r="E84">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="G84">
-        <v>84.3</v>
+        <v>78.7</v>
       </c>
       <c r="H84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I84" t="s">
         <v>35</v>
@@ -2950,13 +2968,13 @@
         <v>18</v>
       </c>
       <c r="E85">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="G85">
-        <v>78.7</v>
+        <v>85.9</v>
       </c>
       <c r="H85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I85" t="s">
         <v>35</v>
@@ -2982,13 +3000,13 @@
         <v>18</v>
       </c>
       <c r="E86">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="G86">
-        <v>85.9</v>
+        <v>98.1</v>
       </c>
       <c r="H86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I86" t="s">
         <v>35</v>
@@ -3014,13 +3032,13 @@
         <v>18</v>
       </c>
       <c r="E87">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="G87">
-        <v>98.1</v>
+        <v>88.1</v>
       </c>
       <c r="H87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I87" t="s">
         <v>35</v>
@@ -3046,13 +3064,13 @@
         <v>18</v>
       </c>
       <c r="E88">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="G88">
-        <v>88.1</v>
+        <v>107.5</v>
       </c>
       <c r="H88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I88" t="s">
         <v>35</v>
@@ -3078,13 +3096,13 @@
         <v>18</v>
       </c>
       <c r="E89">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G89">
-        <v>107.5</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="H89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I89" t="s">
         <v>35</v>
@@ -3110,13 +3128,13 @@
         <v>18</v>
       </c>
       <c r="E90">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="G90">
-        <v>157.30000000000001</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="H90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I90" t="s">
         <v>35</v>
@@ -3142,13 +3160,13 @@
         <v>18</v>
       </c>
       <c r="E91">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="G91">
-        <v>157.19999999999999</v>
+        <v>158.9</v>
       </c>
       <c r="H91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I91" t="s">
         <v>35</v>
@@ -3174,13 +3192,13 @@
         <v>18</v>
       </c>
       <c r="E92">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G92">
-        <v>158.9</v>
+        <v>208.4</v>
       </c>
       <c r="H92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I92" t="s">
         <v>35</v>
@@ -3206,13 +3224,13 @@
         <v>18</v>
       </c>
       <c r="E93">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="G93">
-        <v>208.4</v>
+        <v>360.7</v>
       </c>
       <c r="H93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I93" t="s">
         <v>35</v>
@@ -3238,13 +3256,13 @@
         <v>18</v>
       </c>
       <c r="E94">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G94">
-        <v>360.7</v>
+        <v>229.8</v>
       </c>
       <c r="H94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I94" t="s">
         <v>35</v>
@@ -3270,13 +3288,13 @@
         <v>18</v>
       </c>
       <c r="E95">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G95">
-        <v>229.8</v>
+        <v>258.89999999999998</v>
       </c>
       <c r="H95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I95" t="s">
         <v>35</v>
@@ -3302,13 +3320,13 @@
         <v>18</v>
       </c>
       <c r="E96">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G96">
-        <v>258.89999999999998</v>
+        <v>334.4</v>
       </c>
       <c r="H96" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I96" t="s">
         <v>35</v>
@@ -3334,13 +3352,13 @@
         <v>18</v>
       </c>
       <c r="E97">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G97">
-        <v>334.4</v>
+        <v>254.2</v>
       </c>
       <c r="H97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I97" t="s">
         <v>35</v>
@@ -3366,13 +3384,13 @@
         <v>18</v>
       </c>
       <c r="E98">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G98">
-        <v>254.2</v>
+        <v>205.9</v>
       </c>
       <c r="H98" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I98" t="s">
         <v>35</v>
@@ -3398,13 +3416,13 @@
         <v>18</v>
       </c>
       <c r="E99">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G99">
-        <v>205.9</v>
+        <v>187.1</v>
       </c>
       <c r="H99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I99" t="s">
         <v>35</v>
@@ -3430,13 +3448,13 @@
         <v>18</v>
       </c>
       <c r="E100">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G100">
-        <v>187.1</v>
+        <v>164.5</v>
       </c>
       <c r="H100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I100" t="s">
         <v>35</v>
@@ -3462,13 +3480,13 @@
         <v>18</v>
       </c>
       <c r="E101">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G101">
-        <v>164.5</v>
+        <v>151.4</v>
       </c>
       <c r="H101" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I101" t="s">
         <v>35</v>
@@ -3494,13 +3512,13 @@
         <v>18</v>
       </c>
       <c r="E102">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G102">
-        <v>151.4</v>
+        <v>160.9</v>
       </c>
       <c r="H102" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I102" t="s">
         <v>35</v>
@@ -3526,13 +3544,13 @@
         <v>18</v>
       </c>
       <c r="E103">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G103">
-        <v>160.9</v>
+        <v>195.1</v>
       </c>
       <c r="H103" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I103" t="s">
         <v>35</v>
@@ -3558,13 +3576,13 @@
         <v>18</v>
       </c>
       <c r="E104">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G104">
-        <v>195.1</v>
+        <v>159</v>
       </c>
       <c r="H104" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I104" t="s">
         <v>35</v>
@@ -3576,40 +3594,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>16</v>
-      </c>
-      <c r="B105" t="s">
-        <v>75</v>
-      </c>
-      <c r="C105" t="s">
-        <v>30</v>
-      </c>
-      <c r="D105" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105">
-        <v>2019</v>
-      </c>
-      <c r="G105">
-        <v>159</v>
-      </c>
-      <c r="H105" t="s">
-        <v>71</v>
-      </c>
-      <c r="I105" t="s">
-        <v>35</v>
-      </c>
-      <c r="J105" t="s">
-        <v>41</v>
-      </c>
-      <c r="L105" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A5:L304" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L303" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo/trade/CHE_trd_gas.xlsx
+++ b/data/zenodo/trade/CHE_trd_gas.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA24B43-E366-AB41-9370-C735310144B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3987B791-D18D-F347-B8B0-454591C6AD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$303</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$304</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="81">
   <si>
     <t>Name:</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>enable_year</t>
+  </si>
+  <si>
+    <t>cost_variable_om</t>
   </si>
 </sst>
 </file>
@@ -374,9 +377,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -414,9 +417,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,26 +452,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,26 +487,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -694,11 +663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -905,22 +874,13 @@
         <v>75</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="G13">
-        <v>15818.000000000002</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -931,20 +891,23 @@
         <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>15818.000000000002</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
       </c>
       <c r="J14" t="s">
         <v>33</v>
       </c>
+      <c r="L14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -953,29 +916,20 @@
       <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>1990</v>
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
       </c>
       <c r="G15">
-        <v>360</v>
-      </c>
-      <c r="H15" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -992,15 +946,23 @@
         <v>18</v>
       </c>
       <c r="E16">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G16">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="H16" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1016,10 +978,10 @@
         <v>18</v>
       </c>
       <c r="E17">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G17">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="H17" t="s">
         <v>31</v>
@@ -1040,10 +1002,10 @@
         <v>18</v>
       </c>
       <c r="E18">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
         <v>31</v>
@@ -1064,7 +1026,7 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1088,10 +1050,10 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G20">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
         <v>31</v>
@@ -1112,10 +1074,10 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="H21" t="s">
         <v>31</v>
@@ -1136,10 +1098,10 @@
         <v>18</v>
       </c>
       <c r="E22">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
         <v>31</v>
@@ -1160,10 +1122,10 @@
         <v>18</v>
       </c>
       <c r="E23">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
         <v>31</v>
@@ -1184,10 +1146,10 @@
         <v>18</v>
       </c>
       <c r="E24">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
         <v>31</v>
@@ -1208,7 +1170,7 @@
         <v>18</v>
       </c>
       <c r="E25">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -1232,10 +1194,10 @@
         <v>18</v>
       </c>
       <c r="E26">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
         <v>31</v>
@@ -1256,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="E27">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
         <v>31</v>
@@ -1280,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="E28">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1304,10 +1266,10 @@
         <v>18</v>
       </c>
       <c r="E29">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
         <v>31</v>
@@ -1328,10 +1290,10 @@
         <v>18</v>
       </c>
       <c r="E30">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
         <v>31</v>
@@ -1352,10 +1314,10 @@
         <v>18</v>
       </c>
       <c r="E31">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G31">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="H31" t="s">
         <v>31</v>
@@ -1376,10 +1338,10 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="H32" t="s">
         <v>31</v>
@@ -1400,7 +1362,7 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1424,7 +1386,7 @@
         <v>18</v>
       </c>
       <c r="E34">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1448,7 +1410,7 @@
         <v>18</v>
       </c>
       <c r="E35">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1472,7 +1434,7 @@
         <v>18</v>
       </c>
       <c r="E36">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1496,7 +1458,7 @@
         <v>18</v>
       </c>
       <c r="E37">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1520,7 +1482,7 @@
         <v>18</v>
       </c>
       <c r="E38">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1544,7 +1506,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1568,7 +1530,7 @@
         <v>18</v>
       </c>
       <c r="E40">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1592,10 +1554,10 @@
         <v>18</v>
       </c>
       <c r="E41">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H41" t="s">
         <v>31</v>
@@ -1616,10 +1578,10 @@
         <v>18</v>
       </c>
       <c r="E42">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H42" t="s">
         <v>31</v>
@@ -1640,7 +1602,7 @@
         <v>18</v>
       </c>
       <c r="E43">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1664,10 +1626,10 @@
         <v>18</v>
       </c>
       <c r="E44">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H44" t="s">
         <v>31</v>
@@ -1682,29 +1644,21 @@
         <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
       </c>
       <c r="E45">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G45">
-        <v>14380</v>
+        <v>10</v>
       </c>
       <c r="H45" t="s">
         <v>31</v>
       </c>
-      <c r="J45" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L45" t="s">
-        <v>38</v>
-      </c>
+      <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1720,10 +1674,10 @@
         <v>18</v>
       </c>
       <c r="E46">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G46">
-        <v>11480</v>
+        <v>14380</v>
       </c>
       <c r="H46" t="s">
         <v>31</v>
@@ -1752,10 +1706,10 @@
         <v>18</v>
       </c>
       <c r="E47">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G47">
-        <v>5350</v>
+        <v>11480</v>
       </c>
       <c r="H47" t="s">
         <v>31</v>
@@ -1784,10 +1738,10 @@
         <v>18</v>
       </c>
       <c r="E48">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G48">
-        <v>4350</v>
+        <v>5350</v>
       </c>
       <c r="H48" t="s">
         <v>31</v>
@@ -1816,10 +1770,10 @@
         <v>18</v>
       </c>
       <c r="E49">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G49">
-        <v>4520</v>
+        <v>4350</v>
       </c>
       <c r="H49" t="s">
         <v>31</v>
@@ -1848,10 +1802,10 @@
         <v>18</v>
       </c>
       <c r="E50">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G50">
-        <v>6780</v>
+        <v>4520</v>
       </c>
       <c r="H50" t="s">
         <v>31</v>
@@ -1880,10 +1834,10 @@
         <v>18</v>
       </c>
       <c r="E51">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G51">
-        <v>4560</v>
+        <v>6780</v>
       </c>
       <c r="H51" t="s">
         <v>31</v>
@@ -1912,10 +1866,10 @@
         <v>18</v>
       </c>
       <c r="E52">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G52">
-        <v>3110</v>
+        <v>4560</v>
       </c>
       <c r="H52" t="s">
         <v>31</v>
@@ -1944,10 +1898,10 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G53">
-        <v>2690</v>
+        <v>3110</v>
       </c>
       <c r="H53" t="s">
         <v>31</v>
@@ -1976,10 +1930,10 @@
         <v>18</v>
       </c>
       <c r="E54">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G54">
-        <v>2570</v>
+        <v>2690</v>
       </c>
       <c r="H54" t="s">
         <v>31</v>
@@ -2008,10 +1962,10 @@
         <v>18</v>
       </c>
       <c r="E55">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G55">
-        <v>7830</v>
+        <v>2570</v>
       </c>
       <c r="H55" t="s">
         <v>31</v>
@@ -2040,10 +1994,10 @@
         <v>18</v>
       </c>
       <c r="E56">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G56">
-        <v>5330</v>
+        <v>7830</v>
       </c>
       <c r="H56" t="s">
         <v>31</v>
@@ -2072,10 +2026,10 @@
         <v>18</v>
       </c>
       <c r="E57">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G57">
-        <v>4300</v>
+        <v>5330</v>
       </c>
       <c r="H57" t="s">
         <v>31</v>
@@ -2104,10 +2058,10 @@
         <v>18</v>
       </c>
       <c r="E58">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G58">
-        <v>3110</v>
+        <v>4300</v>
       </c>
       <c r="H58" t="s">
         <v>31</v>
@@ -2136,10 +2090,10 @@
         <v>18</v>
       </c>
       <c r="E59">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G59">
-        <v>5400</v>
+        <v>3110</v>
       </c>
       <c r="H59" t="s">
         <v>31</v>
@@ -2168,10 +2122,10 @@
         <v>18</v>
       </c>
       <c r="E60">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G60">
-        <v>4110</v>
+        <v>5400</v>
       </c>
       <c r="H60" t="s">
         <v>31</v>
@@ -2200,10 +2154,10 @@
         <v>18</v>
       </c>
       <c r="E61">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G61">
-        <v>6720</v>
+        <v>4110</v>
       </c>
       <c r="H61" t="s">
         <v>31</v>
@@ -2232,10 +2186,10 @@
         <v>18</v>
       </c>
       <c r="E62">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G62">
-        <v>8460</v>
+        <v>6720</v>
       </c>
       <c r="H62" t="s">
         <v>31</v>
@@ -2264,10 +2218,10 @@
         <v>18</v>
       </c>
       <c r="E63">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G63">
-        <v>6490</v>
+        <v>8460</v>
       </c>
       <c r="H63" t="s">
         <v>31</v>
@@ -2296,10 +2250,10 @@
         <v>18</v>
       </c>
       <c r="E64">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G64">
-        <v>6810</v>
+        <v>6490</v>
       </c>
       <c r="H64" t="s">
         <v>31</v>
@@ -2328,10 +2282,10 @@
         <v>18</v>
       </c>
       <c r="E65">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G65">
-        <v>5380</v>
+        <v>6810</v>
       </c>
       <c r="H65" t="s">
         <v>31</v>
@@ -2360,10 +2314,10 @@
         <v>18</v>
       </c>
       <c r="E66">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G66">
-        <v>4750</v>
+        <v>5380</v>
       </c>
       <c r="H66" t="s">
         <v>31</v>
@@ -2392,10 +2346,10 @@
         <v>18</v>
       </c>
       <c r="E67">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G67">
-        <v>5390</v>
+        <v>4750</v>
       </c>
       <c r="H67" t="s">
         <v>31</v>
@@ -2424,10 +2378,10 @@
         <v>18</v>
       </c>
       <c r="E68">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G68">
-        <v>5700</v>
+        <v>5390</v>
       </c>
       <c r="H68" t="s">
         <v>31</v>
@@ -2456,10 +2410,10 @@
         <v>18</v>
       </c>
       <c r="E69">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G69">
-        <v>4640</v>
+        <v>5700</v>
       </c>
       <c r="H69" t="s">
         <v>31</v>
@@ -2488,10 +2442,10 @@
         <v>18</v>
       </c>
       <c r="E70">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G70">
-        <v>5440</v>
+        <v>4640</v>
       </c>
       <c r="H70" t="s">
         <v>31</v>
@@ -2520,10 +2474,10 @@
         <v>18</v>
       </c>
       <c r="E71">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G71">
-        <v>4760</v>
+        <v>5440</v>
       </c>
       <c r="H71" t="s">
         <v>31</v>
@@ -2552,10 +2506,10 @@
         <v>18</v>
       </c>
       <c r="E72">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G72">
-        <v>4590</v>
+        <v>4760</v>
       </c>
       <c r="H72" t="s">
         <v>31</v>
@@ -2584,10 +2538,10 @@
         <v>18</v>
       </c>
       <c r="E73">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G73">
-        <v>3390</v>
+        <v>4590</v>
       </c>
       <c r="H73" t="s">
         <v>31</v>
@@ -2616,10 +2570,10 @@
         <v>18</v>
       </c>
       <c r="E74">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G74">
-        <v>3360</v>
+        <v>3390</v>
       </c>
       <c r="H74" t="s">
         <v>31</v>
@@ -2642,28 +2596,28 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
       </c>
       <c r="E75">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G75">
-        <v>103.5</v>
+        <v>3360</v>
       </c>
       <c r="H75" t="s">
-        <v>40</v>
-      </c>
-      <c r="I75" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="L75" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -2680,13 +2634,13 @@
         <v>18</v>
       </c>
       <c r="E76">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G76">
-        <v>100</v>
+        <v>103.5</v>
       </c>
       <c r="H76" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I76" t="s">
         <v>35</v>
@@ -2712,13 +2666,13 @@
         <v>18</v>
       </c>
       <c r="E77">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G77">
-        <v>90.1</v>
+        <v>100</v>
       </c>
       <c r="H77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I77" t="s">
         <v>35</v>
@@ -2744,13 +2698,13 @@
         <v>18</v>
       </c>
       <c r="E78">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G78">
-        <v>76.5</v>
+        <v>90.1</v>
       </c>
       <c r="H78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I78" t="s">
         <v>35</v>
@@ -2776,13 +2730,13 @@
         <v>18</v>
       </c>
       <c r="E79">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G79">
-        <v>79.599999999999994</v>
+        <v>76.5</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I79" t="s">
         <v>35</v>
@@ -2808,13 +2762,13 @@
         <v>18</v>
       </c>
       <c r="E80">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G80">
-        <v>101.5</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I80" t="s">
         <v>35</v>
@@ -2840,13 +2794,13 @@
         <v>18</v>
       </c>
       <c r="E81">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G81">
-        <v>99.8</v>
+        <v>101.5</v>
       </c>
       <c r="H81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
         <v>35</v>
@@ -2872,13 +2826,13 @@
         <v>18</v>
       </c>
       <c r="E82">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G82">
-        <v>84.5</v>
+        <v>99.8</v>
       </c>
       <c r="H82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
         <v>35</v>
@@ -2904,13 +2858,13 @@
         <v>18</v>
       </c>
       <c r="E83">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G83">
-        <v>84.3</v>
+        <v>84.5</v>
       </c>
       <c r="H83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I83" t="s">
         <v>35</v>
@@ -2936,13 +2890,13 @@
         <v>18</v>
       </c>
       <c r="E84">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G84">
-        <v>78.7</v>
+        <v>84.3</v>
       </c>
       <c r="H84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I84" t="s">
         <v>35</v>
@@ -2968,13 +2922,13 @@
         <v>18</v>
       </c>
       <c r="E85">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G85">
-        <v>85.9</v>
+        <v>78.7</v>
       </c>
       <c r="H85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I85" t="s">
         <v>35</v>
@@ -3000,13 +2954,13 @@
         <v>18</v>
       </c>
       <c r="E86">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G86">
-        <v>98.1</v>
+        <v>85.9</v>
       </c>
       <c r="H86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I86" t="s">
         <v>35</v>
@@ -3032,13 +2986,13 @@
         <v>18</v>
       </c>
       <c r="E87">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G87">
-        <v>88.1</v>
+        <v>98.1</v>
       </c>
       <c r="H87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I87" t="s">
         <v>35</v>
@@ -3064,13 +3018,13 @@
         <v>18</v>
       </c>
       <c r="E88">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G88">
-        <v>107.5</v>
+        <v>88.1</v>
       </c>
       <c r="H88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I88" t="s">
         <v>35</v>
@@ -3096,13 +3050,13 @@
         <v>18</v>
       </c>
       <c r="E89">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G89">
-        <v>157.30000000000001</v>
+        <v>107.5</v>
       </c>
       <c r="H89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I89" t="s">
         <v>35</v>
@@ -3128,13 +3082,13 @@
         <v>18</v>
       </c>
       <c r="E90">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G90">
-        <v>157.19999999999999</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="H90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I90" t="s">
         <v>35</v>
@@ -3160,13 +3114,13 @@
         <v>18</v>
       </c>
       <c r="E91">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G91">
-        <v>158.9</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="H91" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I91" t="s">
         <v>35</v>
@@ -3192,13 +3146,13 @@
         <v>18</v>
       </c>
       <c r="E92">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G92">
-        <v>208.4</v>
+        <v>158.9</v>
       </c>
       <c r="H92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I92" t="s">
         <v>35</v>
@@ -3224,13 +3178,13 @@
         <v>18</v>
       </c>
       <c r="E93">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G93">
-        <v>360.7</v>
+        <v>208.4</v>
       </c>
       <c r="H93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I93" t="s">
         <v>35</v>
@@ -3256,13 +3210,13 @@
         <v>18</v>
       </c>
       <c r="E94">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G94">
-        <v>229.8</v>
+        <v>360.7</v>
       </c>
       <c r="H94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I94" t="s">
         <v>35</v>
@@ -3288,13 +3242,13 @@
         <v>18</v>
       </c>
       <c r="E95">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G95">
-        <v>258.89999999999998</v>
+        <v>229.8</v>
       </c>
       <c r="H95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I95" t="s">
         <v>35</v>
@@ -3320,13 +3274,13 @@
         <v>18</v>
       </c>
       <c r="E96">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G96">
-        <v>334.4</v>
+        <v>258.89999999999998</v>
       </c>
       <c r="H96" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I96" t="s">
         <v>35</v>
@@ -3352,13 +3306,13 @@
         <v>18</v>
       </c>
       <c r="E97">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G97">
-        <v>254.2</v>
+        <v>334.4</v>
       </c>
       <c r="H97" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I97" t="s">
         <v>35</v>
@@ -3384,13 +3338,13 @@
         <v>18</v>
       </c>
       <c r="E98">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G98">
-        <v>205.9</v>
+        <v>254.2</v>
       </c>
       <c r="H98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I98" t="s">
         <v>35</v>
@@ -3416,13 +3370,13 @@
         <v>18</v>
       </c>
       <c r="E99">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G99">
-        <v>187.1</v>
+        <v>205.9</v>
       </c>
       <c r="H99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I99" t="s">
         <v>35</v>
@@ -3448,13 +3402,13 @@
         <v>18</v>
       </c>
       <c r="E100">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G100">
-        <v>164.5</v>
+        <v>187.1</v>
       </c>
       <c r="H100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I100" t="s">
         <v>35</v>
@@ -3480,13 +3434,13 @@
         <v>18</v>
       </c>
       <c r="E101">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G101">
-        <v>151.4</v>
+        <v>164.5</v>
       </c>
       <c r="H101" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I101" t="s">
         <v>35</v>
@@ -3512,13 +3466,13 @@
         <v>18</v>
       </c>
       <c r="E102">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G102">
-        <v>160.9</v>
+        <v>151.4</v>
       </c>
       <c r="H102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I102" t="s">
         <v>35</v>
@@ -3544,13 +3498,13 @@
         <v>18</v>
       </c>
       <c r="E103">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G103">
-        <v>195.1</v>
+        <v>160.9</v>
       </c>
       <c r="H103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I103" t="s">
         <v>35</v>
@@ -3576,13 +3530,13 @@
         <v>18</v>
       </c>
       <c r="E104">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G104">
-        <v>159</v>
+        <v>195.1</v>
       </c>
       <c r="H104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I104" t="s">
         <v>35</v>
@@ -3594,8 +3548,40 @@
         <v>42</v>
       </c>
     </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>75</v>
+      </c>
+      <c r="C105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105">
+        <v>2019</v>
+      </c>
+      <c r="G105">
+        <v>159</v>
+      </c>
+      <c r="H105" t="s">
+        <v>71</v>
+      </c>
+      <c r="I105" t="s">
+        <v>35</v>
+      </c>
+      <c r="J105" t="s">
+        <v>41</v>
+      </c>
+      <c r="L105" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:L303" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L304" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
